--- a/Itinary - NatCon 2023.xlsx
+++ b/Itinary - NatCon 2023.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Documents\EkklesiaValencia\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FE46C8A-F195-4E1F-B3C5-3316FBE3BC2E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7521CFAA-8119-4717-AF69-DDAB332E204A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="20370" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{BE4E8C32-9207-47F4-947E-E4C17FABED4D}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="27">
   <si>
     <t>transpo</t>
   </si>
@@ -61,9 +61,6 @@
   </si>
   <si>
     <t>van val - airport</t>
-  </si>
-  <si>
-    <t>-</t>
   </si>
   <si>
     <t>airport - hotel, try pa kuha ta kang ate</t>
@@ -502,8 +499,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FDE15743-FB7B-486A-B1A1-4EAA5B9E87EB}">
   <dimension ref="A3:J38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -587,16 +584,16 @@
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B12" t="s">
+      <c r="B12">
+        <v>400</v>
+      </c>
+      <c r="C12" t="s">
         <v>9</v>
-      </c>
-      <c r="C12" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
@@ -604,25 +601,25 @@
         <v>45224</v>
       </c>
       <c r="G14" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I14">
         <f>SUM(B:B)</f>
-        <v>10200</v>
+        <v>10600</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B15">
         <v>150</v>
       </c>
       <c r="C15" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
@@ -630,10 +627,10 @@
         <v>600</v>
       </c>
       <c r="C16" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G16" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H16" s="4">
         <f>1800*4</f>
@@ -648,7 +645,7 @@
         <v>6</v>
       </c>
       <c r="G17" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H17" s="3">
         <f>2475*4</f>
@@ -664,11 +661,11 @@
       </c>
       <c r="I18" s="3">
         <f>I14+H17</f>
-        <v>20100</v>
+        <v>20500</v>
       </c>
       <c r="J18" s="4">
         <f>I14+H16</f>
-        <v>17400</v>
+        <v>17800</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
@@ -676,12 +673,12 @@
         <v>150</v>
       </c>
       <c r="C19" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
@@ -692,18 +689,18 @@
         <v>150</v>
       </c>
       <c r="C21" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B22">
         <v>600</v>
       </c>
       <c r="C22" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
@@ -727,12 +724,12 @@
         <v>150</v>
       </c>
       <c r="C25" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
@@ -743,18 +740,18 @@
         <v>150</v>
       </c>
       <c r="C27" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B28">
         <v>600</v>
       </c>
       <c r="C28" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
@@ -778,12 +775,12 @@
         <v>150</v>
       </c>
       <c r="C31" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
@@ -794,17 +791,17 @@
         <v>600</v>
       </c>
       <c r="C33" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
@@ -815,12 +812,12 @@
         <v>1050</v>
       </c>
       <c r="C37" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
   </sheetData>
